--- a/test_data/test_data_binary.xlsx
+++ b/test_data/test_data_binary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>gene6</t>
+  </si>
+  <si>
+    <t>gene7</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,10 +400,6 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2">
-        <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -409,10 +408,6 @@
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C31" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>72</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -421,10 +416,6 @@
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -433,10 +424,6 @@
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -445,10 +432,6 @@
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -457,10 +440,6 @@
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -469,10 +448,6 @@
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -481,10 +456,6 @@
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -493,10 +464,6 @@
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -505,10 +472,6 @@
       <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -517,10 +480,6 @@
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -529,10 +488,6 @@
       <c r="B13">
         <v>100</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -541,10 +496,6 @@
       <c r="B14">
         <v>100</v>
       </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -553,10 +504,6 @@
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -565,1989 +512,1565 @@
       <c r="B16">
         <v>100</v>
       </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C31" ca="1" si="1">RANDBETWEEN(0,50)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
         <v>100</v>
       </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25">
         <v>100</v>
       </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27">
         <v>100</v>
       </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29">
         <v>100</v>
       </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30">
         <v>100</v>
       </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31">
         <v>100</v>
       </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32">
         <v>100</v>
       </c>
-      <c r="C32">
-        <f ca="1">RANDBETWEEN(10,60)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
         <v>100</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C61" ca="1" si="2">RANDBETWEEN(10,60)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34">
         <v>100</v>
       </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35">
         <v>100</v>
       </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36">
         <v>100</v>
       </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37">
         <v>100</v>
       </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38">
         <v>100</v>
       </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39">
         <v>100</v>
       </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40">
         <v>100</v>
       </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43">
         <v>100</v>
       </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44">
         <v>100</v>
       </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45">
         <v>100</v>
       </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46">
         <v>100</v>
       </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47">
         <v>100</v>
       </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48">
         <v>100</v>
       </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49">
         <v>100</v>
       </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50">
         <v>100</v>
       </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51">
         <v>100</v>
       </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52">
         <v>100</v>
       </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
         <v>100</v>
       </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54">
         <v>100</v>
       </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55">
         <v>100</v>
       </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56">
         <v>100</v>
       </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57">
         <v>100</v>
       </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
         <v>100</v>
       </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59">
         <v>100</v>
       </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60">
         <v>100</v>
       </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61">
         <v>100</v>
       </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62">
         <v>100</v>
       </c>
-      <c r="C62">
-        <f ca="1">RANDBETWEEN(20, 70)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63">
         <v>100</v>
       </c>
-      <c r="C63">
-        <f t="shared" ref="C63:C91" ca="1" si="3">RANDBETWEEN(20, 70)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64">
         <v>100</v>
       </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
       <c r="B65">
         <v>100</v>
       </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66">
         <v>100</v>
       </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67">
         <v>100</v>
       </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68">
         <v>100</v>
       </c>
-      <c r="C68">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69">
         <v>100</v>
       </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
       <c r="B70">
         <v>100</v>
       </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
       <c r="B71">
         <v>100</v>
       </c>
-      <c r="C71">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
       <c r="B72">
         <v>100</v>
       </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
       <c r="B73">
         <v>100</v>
       </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
       <c r="B74">
         <v>100</v>
       </c>
-      <c r="C74">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
       <c r="B75">
         <v>100</v>
       </c>
-      <c r="C75">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76">
         <v>100</v>
       </c>
-      <c r="C76">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
       <c r="B77">
         <v>100</v>
       </c>
-      <c r="C77">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78">
         <v>100</v>
       </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79">
         <v>100</v>
       </c>
-      <c r="C79">
-        <f t="shared" ca="1" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80">
         <v>100</v>
       </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
       <c r="B81">
         <v>100</v>
       </c>
-      <c r="C81">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="B82">
         <v>100</v>
       </c>
-      <c r="C82">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
       <c r="B83">
         <v>100</v>
       </c>
-      <c r="C83">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
       <c r="B84">
         <v>100</v>
       </c>
-      <c r="C84">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
       <c r="B85">
         <v>100</v>
       </c>
-      <c r="C85">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86">
         <v>100</v>
       </c>
-      <c r="C86">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
       <c r="B87">
         <v>100</v>
       </c>
-      <c r="C87">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
       <c r="B88">
         <v>100</v>
       </c>
-      <c r="C88">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
       <c r="B89">
         <v>100</v>
       </c>
-      <c r="C89">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
       <c r="B90">
         <v>100</v>
       </c>
-      <c r="C90">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91">
         <v>100</v>
       </c>
-      <c r="C91">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
       <c r="B92">
         <v>100</v>
       </c>
-      <c r="C92">
-        <f ca="1">RANDBETWEEN(30, 80)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93">
         <v>100</v>
       </c>
-      <c r="C93">
-        <f t="shared" ref="C93:C121" ca="1" si="4">RANDBETWEEN(30, 80)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
       <c r="B94">
         <v>100</v>
       </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="4"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
       <c r="B95">
         <v>100</v>
       </c>
-      <c r="C95">
-        <f t="shared" ca="1" si="4"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
       <c r="B96">
         <v>100</v>
       </c>
-      <c r="C96">
-        <f t="shared" ca="1" si="4"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
       <c r="B97">
         <v>100</v>
       </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
       <c r="B98">
         <v>100</v>
       </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99">
         <v>100</v>
       </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="4"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
       <c r="B100">
         <v>100</v>
       </c>
-      <c r="C100">
-        <f t="shared" ca="1" si="4"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
-      <c r="C101">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
       <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102">
-        <f t="shared" ca="1" si="4"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
       <c r="B103">
         <v>100</v>
       </c>
-      <c r="C103">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
       <c r="B104">
         <v>100</v>
       </c>
-      <c r="C104">
-        <f t="shared" ca="1" si="4"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105">
         <v>100</v>
       </c>
-      <c r="C105">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
       <c r="B106">
         <v>100</v>
       </c>
-      <c r="C106">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
       <c r="B107">
         <v>100</v>
       </c>
-      <c r="C107">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
       <c r="B108">
         <v>100</v>
       </c>
-      <c r="C108">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
       <c r="B109">
         <v>100</v>
       </c>
-      <c r="C109">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110">
         <v>100</v>
       </c>
-      <c r="C110">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111">
         <v>100</v>
       </c>
-      <c r="C111">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
       <c r="B112">
         <v>100</v>
       </c>
-      <c r="C112">
-        <f t="shared" ca="1" si="4"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
       <c r="B113">
         <v>100</v>
       </c>
-      <c r="C113">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
       <c r="B114">
         <v>100</v>
       </c>
-      <c r="C114">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
       <c r="B115">
         <v>100</v>
       </c>
-      <c r="C115">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
       <c r="B116">
         <v>100</v>
       </c>
-      <c r="C116">
-        <f t="shared" ca="1" si="4"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117">
         <v>100</v>
       </c>
-      <c r="C117">
-        <f t="shared" ca="1" si="4"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
       <c r="B118">
         <v>100</v>
       </c>
-      <c r="C118">
-        <f t="shared" ca="1" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
       <c r="B119">
         <v>100</v>
       </c>
-      <c r="C119">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
       <c r="B120">
         <v>100</v>
       </c>
-      <c r="C120">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
       <c r="B121">
         <v>100</v>
       </c>
-      <c r="C121">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122">
         <v>100</v>
       </c>
-      <c r="C122">
-        <f ca="1">RANDBETWEEN(40, 90)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123">
         <v>100</v>
       </c>
-      <c r="C123">
-        <f t="shared" ref="C123:C151" ca="1" si="5">RANDBETWEEN(40, 90)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124">
         <v>100</v>
       </c>
-      <c r="C124">
-        <f t="shared" ca="1" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
       <c r="B125">
         <v>100</v>
       </c>
-      <c r="C125">
-        <f t="shared" ca="1" si="5"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>8</v>
       </c>
       <c r="B126">
         <v>100</v>
       </c>
-      <c r="C126">
-        <f t="shared" ca="1" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
       <c r="B127">
         <v>100</v>
       </c>
-      <c r="C127">
-        <f t="shared" ca="1" si="5"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
       <c r="B128">
         <v>100</v>
       </c>
-      <c r="C128">
-        <f t="shared" ca="1" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
       <c r="B129">
         <v>100</v>
       </c>
-      <c r="C129">
-        <f t="shared" ca="1" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130">
         <v>100</v>
       </c>
-      <c r="C130">
-        <f t="shared" ca="1" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
       <c r="B131">
         <v>100</v>
       </c>
-      <c r="C131">
-        <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
       <c r="B132">
         <v>100</v>
       </c>
-      <c r="C132">
-        <f t="shared" ca="1" si="5"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
       <c r="B133">
         <v>100</v>
       </c>
-      <c r="C133">
-        <f t="shared" ca="1" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134">
         <v>100</v>
       </c>
-      <c r="C134">
-        <f t="shared" ca="1" si="5"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>8</v>
       </c>
       <c r="B135">
         <v>100</v>
       </c>
-      <c r="C135">
-        <f t="shared" ca="1" si="5"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136">
         <v>100</v>
       </c>
-      <c r="C136">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
       <c r="B137">
         <v>100</v>
       </c>
-      <c r="C137">
-        <f t="shared" ca="1" si="5"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138">
         <v>100</v>
       </c>
-      <c r="C138">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
       <c r="B139">
         <v>100</v>
       </c>
-      <c r="C139">
-        <f t="shared" ca="1" si="5"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
       <c r="B140">
         <v>100</v>
       </c>
-      <c r="C140">
-        <f t="shared" ca="1" si="5"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141">
         <v>100</v>
       </c>
-      <c r="C141">
-        <f t="shared" ca="1" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142">
         <v>100</v>
       </c>
-      <c r="C142">
-        <f t="shared" ca="1" si="5"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
       <c r="B143">
         <v>100</v>
       </c>
-      <c r="C143">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
       <c r="B144">
         <v>100</v>
       </c>
-      <c r="C144">
-        <f t="shared" ca="1" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
       <c r="B145">
         <v>100</v>
       </c>
-      <c r="C145">
-        <f t="shared" ca="1" si="5"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146">
         <v>100</v>
       </c>
-      <c r="C146">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
       <c r="B147">
         <v>100</v>
       </c>
-      <c r="C147">
-        <f t="shared" ca="1" si="5"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="B148">
         <v>100</v>
       </c>
-      <c r="C148">
-        <f t="shared" ca="1" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
       <c r="B149">
         <v>100</v>
       </c>
-      <c r="C149">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
       <c r="B150">
         <v>100</v>
       </c>
-      <c r="C150">
-        <f t="shared" ca="1" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
       <c r="B151">
         <v>100</v>
       </c>
-      <c r="C151">
-        <f t="shared" ca="1" si="5"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
       <c r="B152">
         <v>100</v>
       </c>
-      <c r="C152">
-        <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
       <c r="B153">
         <v>100</v>
       </c>
-      <c r="C153">
-        <f t="shared" ref="C153:C181" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
       <c r="B154">
         <v>100</v>
       </c>
-      <c r="C154">
-        <f t="shared" ca="1" si="6"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155">
         <v>100</v>
       </c>
-      <c r="C155">
-        <f t="shared" ca="1" si="6"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
       <c r="B156">
         <v>100</v>
       </c>
-      <c r="C156">
-        <f t="shared" ca="1" si="6"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
       <c r="B157">
         <v>100</v>
       </c>
-      <c r="C157">
-        <f t="shared" ca="1" si="6"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
       <c r="B158">
         <v>100</v>
       </c>
-      <c r="C158">
-        <f t="shared" ca="1" si="6"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>9</v>
       </c>
       <c r="B159">
         <v>100</v>
       </c>
-      <c r="C159">
-        <f t="shared" ca="1" si="6"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>9</v>
       </c>
       <c r="B160">
         <v>100</v>
       </c>
-      <c r="C160">
-        <f t="shared" ca="1" si="6"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>9</v>
       </c>
       <c r="B161">
         <v>100</v>
       </c>
-      <c r="C161">
-        <f t="shared" ca="1" si="6"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
       <c r="B162">
         <v>100</v>
       </c>
-      <c r="C162">
-        <f t="shared" ca="1" si="6"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>9</v>
       </c>
       <c r="B163">
         <v>100</v>
       </c>
-      <c r="C163">
-        <f t="shared" ca="1" si="6"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>9</v>
       </c>
       <c r="B164">
         <v>100</v>
       </c>
-      <c r="C164">
-        <f t="shared" ca="1" si="6"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>9</v>
       </c>
       <c r="B165">
         <v>100</v>
       </c>
-      <c r="C165">
-        <f t="shared" ca="1" si="6"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
       <c r="B166">
         <v>100</v>
       </c>
-      <c r="C166">
-        <f t="shared" ca="1" si="6"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>9</v>
       </c>
       <c r="B167">
         <v>100</v>
       </c>
-      <c r="C167">
-        <f t="shared" ca="1" si="6"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>9</v>
       </c>
       <c r="B168">
         <v>100</v>
       </c>
-      <c r="C168">
-        <f t="shared" ca="1" si="6"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>9</v>
       </c>
       <c r="B169">
         <v>100</v>
       </c>
-      <c r="C169">
-        <f t="shared" ca="1" si="6"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>9</v>
       </c>
       <c r="B170">
         <v>100</v>
       </c>
-      <c r="C170">
-        <f t="shared" ca="1" si="6"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>9</v>
       </c>
       <c r="B171">
         <v>100</v>
       </c>
-      <c r="C171">
-        <f t="shared" ca="1" si="6"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>9</v>
       </c>
       <c r="B172">
         <v>100</v>
       </c>
-      <c r="C172">
-        <f t="shared" ca="1" si="6"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>9</v>
       </c>
       <c r="B173">
         <v>100</v>
       </c>
-      <c r="C173">
-        <f t="shared" ca="1" si="6"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>9</v>
       </c>
       <c r="B174">
         <v>100</v>
       </c>
-      <c r="C174">
-        <f t="shared" ca="1" si="6"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>9</v>
       </c>
       <c r="B175">
         <v>100</v>
       </c>
-      <c r="C175">
-        <f t="shared" ca="1" si="6"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
       <c r="B176">
         <v>100</v>
       </c>
-      <c r="C176">
-        <f t="shared" ca="1" si="6"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>9</v>
       </c>
       <c r="B177">
         <v>100</v>
       </c>
-      <c r="C177">
-        <f t="shared" ca="1" si="6"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
       <c r="B178">
         <v>100</v>
       </c>
-      <c r="C178">
-        <f t="shared" ca="1" si="6"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>9</v>
       </c>
       <c r="B179">
         <v>100</v>
       </c>
-      <c r="C179">
-        <f t="shared" ca="1" si="6"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>9</v>
       </c>
       <c r="B180">
         <v>100</v>
       </c>
-      <c r="C180">
-        <f t="shared" ca="1" si="6"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>9</v>
       </c>
       <c r="B181">
         <v>100</v>
       </c>
-      <c r="C181">
-        <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
